--- a/Реестр опасностей.xlsx
+++ b/Реестр опасностей.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E414E1B-A27D-4F0D-8D6E-4329E1B7C4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D940D-4A68-4B78-A4D9-E4E84EFE6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,16 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>№ опасности*</t>
-  </si>
-  <si>
     <t>Наименование опасности</t>
   </si>
   <si>
-    <t>№ опасного события*</t>
+    <t>Наименование опасного события</t>
   </si>
   <si>
-    <t>Наименование опасного события</t>
+    <t>№ опасности</t>
+  </si>
+  <si>
+    <t>№ опасного события</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A16:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Реестр опасностей.xlsx
+++ b/Реестр опасностей.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D940D-4A68-4B78-A4D9-E4E84EFE6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E3589-7DD0-4E2B-BB58-76F3242C2ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -85,13 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A16:E22"/>
+  <dimension ref="A13:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,25 +444,25 @@
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="13" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
